--- a/cosineq1.xlsx
+++ b/cosineq1.xlsx
@@ -14,21 +14,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>D1</t>
   </si>
   <si>
+    <t>D70</t>
+  </si>
+  <si>
+    <t>D76</t>
+  </si>
+  <si>
+    <t>D99</t>
+  </si>
+  <si>
+    <t>D45</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>D36</t>
+  </si>
+  <si>
+    <t>D42</t>
+  </si>
+  <si>
+    <t>D51</t>
+  </si>
+  <si>
+    <t>D59</t>
+  </si>
+  <si>
+    <t>D60</t>
+  </si>
+  <si>
+    <t>D61</t>
+  </si>
+  <si>
+    <t>D65</t>
+  </si>
+  <si>
+    <t>D66</t>
+  </si>
+  <si>
+    <t>D73</t>
+  </si>
+  <si>
+    <t>D98</t>
+  </si>
+  <si>
     <t>D2</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>D4</t>
-  </si>
-  <si>
     <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D32</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>D39</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>D43</t>
+  </si>
+  <si>
+    <t>D44</t>
+  </si>
+  <si>
+    <t>D46</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>D49</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>D52</t>
+  </si>
+  <si>
+    <t>D53</t>
+  </si>
+  <si>
+    <t>D54</t>
+  </si>
+  <si>
+    <t>D55</t>
+  </si>
+  <si>
+    <t>D56</t>
+  </si>
+  <si>
+    <t>D57</t>
+  </si>
+  <si>
+    <t>D58</t>
+  </si>
+  <si>
+    <t>D62</t>
+  </si>
+  <si>
+    <t>D63</t>
+  </si>
+  <si>
+    <t>D64</t>
+  </si>
+  <si>
+    <t>D67</t>
+  </si>
+  <si>
+    <t>D68</t>
+  </si>
+  <si>
+    <t>D69</t>
+  </si>
+  <si>
+    <t>D71</t>
+  </si>
+  <si>
+    <t>D72</t>
+  </si>
+  <si>
+    <t>D74</t>
+  </si>
+  <si>
+    <t>D75</t>
+  </si>
+  <si>
+    <t>D77</t>
+  </si>
+  <si>
+    <t>D78</t>
+  </si>
+  <si>
+    <t>D79</t>
+  </si>
+  <si>
+    <t>D80</t>
+  </si>
+  <si>
+    <t>D81</t>
+  </si>
+  <si>
+    <t>D82</t>
+  </si>
+  <si>
+    <t>D83</t>
+  </si>
+  <si>
+    <t>D84</t>
+  </si>
+  <si>
+    <t>D85</t>
+  </si>
+  <si>
+    <t>D86</t>
+  </si>
+  <si>
+    <t>D87</t>
+  </si>
+  <si>
+    <t>D88</t>
+  </si>
+  <si>
+    <t>D89</t>
+  </si>
+  <si>
+    <t>D90</t>
+  </si>
+  <si>
+    <t>D91</t>
+  </si>
+  <si>
+    <t>D92</t>
+  </si>
+  <si>
+    <t>D93</t>
+  </si>
+  <si>
+    <t>D94</t>
+  </si>
+  <si>
+    <t>D95</t>
+  </si>
+  <si>
+    <t>D96</t>
+  </si>
+  <si>
+    <t>D97</t>
+  </si>
+  <si>
+    <t>D100</t>
   </si>
 </sst>
 </file>
@@ -360,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.7422609129112039</v>
+        <v>0.8555993498058215</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -379,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.4351228925430378</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -387,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.4351228925430378</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -395,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.4351228925430378</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -403,6 +688,766 @@
         <v>4</v>
       </c>
       <c r="B5">
+        <v>0.3873489151954843</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.2738970446199799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.2738970446199799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.2738970446199799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.2738970446199799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.2738970446199799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.2738970446199799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.2738970446199799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.2738970446199799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.2738970446199799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.2738970446199799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.2738970446199799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.2738970446199799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.2738970446199799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.2738970446199799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.2738970446199799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.2738970446199799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
         <v>0</v>
       </c>
     </row>
